--- a/pacientes.xlsx
+++ b/pacientes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">APELLIDO</t>
   </si>
@@ -44,14 +44,27 @@
   </si>
   <si>
     <t xml:space="preserve">DIAGNOSTICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le falta cerveza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -118,8 +131,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -140,21 +157,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="37.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="37.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.22"/>
   </cols>
   <sheetData>
@@ -165,7 +182,7 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
@@ -177,11 +194,37 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>33624</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2923506042</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
